--- a/shopify.xlsx
+++ b/shopify.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
-    <sheet name="cần học" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="shopify" sheetId="1" r:id="rId4"/>
-    <sheet name="connect git" sheetId="6" r:id="rId5"/>
-    <sheet name="apps" sheetId="5" r:id="rId6"/>
+    <sheet name="shopify" sheetId="1" r:id="rId1"/>
+    <sheet name="connect git" sheetId="6" r:id="rId2"/>
+    <sheet name="apps" sheetId="5" r:id="rId3"/>
+    <sheet name="theme" sheetId="7" r:id="rId4"/>
+    <sheet name="task bss" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">apps!$D$5:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">apps!$D$5:$F$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="914">
   <si>
     <t>khái niệm</t>
   </si>
@@ -1519,16 +1518,10 @@
     <t>để làm mega menu</t>
   </si>
   <si>
-    <t>theme đã từng sử dụng</t>
-  </si>
-  <si>
     <t>empire</t>
   </si>
   <si>
     <t>Focal</t>
-  </si>
-  <si>
-    <t>dawn theme</t>
   </si>
   <si>
     <t>các loại API</t>
@@ -2349,93 +2342,6 @@
     <t>https://help.shopify.com</t>
   </si>
   <si>
-    <t>chưa kết nối theme đc với github</t>
-  </si>
-  <si>
-    <t>đăng nhập b2b thì mua giá khác</t>
-  </si>
-  <si>
-    <t>k đăng nhập mua giá basic</t>
-  </si>
-  <si>
-    <t>các bug</t>
-  </si>
-  <si>
-    <t>chỉ cài đặt ở admin và customize không đủ</t>
-  </si>
-  <si>
-    <t>phải đọc và hiểu code từng block</t>
-  </si>
-  <si>
-    <t>rất nhiều thẻ, metafield, metaobject phải cài đặt thay đổi</t>
-  </si>
-  <si>
-    <t>lỗi js không chạy cho phần framwork type</t>
-  </si>
-  <si>
-    <t>frame options</t>
-  </si>
-  <si>
-    <t>About the Artist</t>
-  </si>
-  <si>
-    <t>phải vào setting/metaobject bật để có url</t>
-  </si>
-  <si>
-    <t>phải tạo sp ở trong content/metaobject</t>
-  </si>
-  <si>
-    <t>siblings - Artwork Type</t>
-  </si>
-  <si>
-    <t>phải tạo UI ở customize</t>
-  </si>
-  <si>
-    <t>phải gán sp cho product type = print hoặc canvas…</t>
-  </si>
-  <si>
-    <t>phải bật show more options ở customize</t>
-  </si>
-  <si>
-    <t>phải tạo các sp ở content/metaobjects/frame options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp phải có tag : </t>
-  </si>
-  <si>
-    <t>Deploy product options template to live</t>
-  </si>
-  <si>
-    <t>86czbhbkc</t>
-  </si>
-  <si>
-    <t>giá từ options chưa đc cập nhật lên giá chính</t>
-  </si>
-  <si>
-    <t>không nhập được giá - trong app</t>
-  </si>
-  <si>
-    <t>options sẽ nhảy giá sticky ở chân trang</t>
-  </si>
-  <si>
-    <t>máy vắt sữa</t>
-  </si>
-  <si>
-    <t>máy tiệt trùng</t>
-  </si>
-  <si>
-    <t>chiếu ánh sáng tránh vàng da</t>
-  </si>
-  <si>
-    <t>tắm bé và mẹ</t>
-  </si>
-  <si>
-    <t>mua nhiều bỉm mẹ</t>
-  </si>
-  <si>
-    <t>task chỉnh sửa trang product detail của dev desigbor site</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -2481,123 +2387,6 @@
     <t>suport online</t>
   </si>
   <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Motherboard AMD</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>Cables</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifications </t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Case Colour</t>
-  </si>
-  <si>
-    <t>Add Storage</t>
-  </si>
-  <si>
-    <t>Change CPU</t>
-  </si>
-  <si>
-    <t>Change GPU</t>
-  </si>
-  <si>
-    <t>Change PSU</t>
-  </si>
-  <si>
-    <t>Change RAM</t>
-  </si>
-  <si>
-    <t>GPU Display</t>
-  </si>
-  <si>
-    <t>CPU Display</t>
-  </si>
-  <si>
-    <t>RAM Display</t>
-  </si>
-  <si>
-    <t>PSU Display</t>
-  </si>
-  <si>
-    <t>Click "edit option"/more setting/add div class ="fgc-custom-ymq-2"</t>
-  </si>
-  <si>
-    <t>Click "edit option"/more setting/add div class ="fgc-custom-ymq-1 fgc-custom-system-position"</t>
-  </si>
-  <si>
-    <t>Click "edit option"/more setting/add div class ="fgc-custom-ymq-1"</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Label Displayed on U</t>
-  </si>
-  <si>
-    <t>Label to Enter in the App</t>
-  </si>
-  <si>
-    <t>MAKE A CHANGE (using template)</t>
-  </si>
-  <si>
-    <t>How to add a template</t>
-  </si>
-  <si>
-    <t>Make sure to enter the correct class names so that my CSS and JavaScript work properly.</t>
-  </si>
-  <si>
-    <t>In the product, there are two types of data managed within the app:</t>
-  </si>
-  <si>
-    <t>Data displayed in Specifications:</t>
-  </si>
-  <si>
-    <t>Any data with a title that includes "Display" (e.g., GPU Display) is intended only for display on the product detail page. When the product is added to the cart, this data will not appear on the cart or checkout pages.</t>
-  </si>
-  <si>
-    <t>On the other hand, any data without "Display" in the title (e.g., OS, Cables, etc.) will appear on the cart and checkout pages when the product is added to the cart.</t>
-  </si>
-  <si>
-    <t>Data displayed in MAKE A CHANGE:</t>
-  </si>
-  <si>
-    <t>All data in this section will be shown on both the cart and checkout pages, provided that the product has been added to the cart and a valid option has been selected.</t>
-  </si>
-  <si>
-    <t>In addition, we also use custom JS and CSS code to adjust the front-end display to better match your requirements.</t>
-  </si>
-  <si>
     <t>url: https://www.iwdagency.com/account/register</t>
   </si>
   <si>
@@ -2676,14 +2465,1462 @@
     <t xml:space="preserve">nếu </t>
   </si>
   <si>
-    <t>nó là 1 block tên Account Block</t>
+    <t>cách merge code giữa 2 repo git khác nhau</t>
+  </si>
+  <si>
+    <t>git đang sử dụng</t>
+  </si>
+  <si>
+    <t>git để pull về rồi merge</t>
+  </si>
+  <si>
+    <t>tạo git cho live</t>
+  </si>
+  <si>
+    <t>thêm remote của live vào</t>
+  </si>
+  <si>
+    <t>git remote add live https://github.com/PhanDongg/designerboysart-com-live.git</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lấy (fetch) toàn bộ dữ liệu mới nhất từ remote tên là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>live</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> về máy cục bộ (local),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nhưng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không tự động merge vào branch hiện tại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>git fetch live</t>
+  </si>
+  <si>
+    <t>tạo 1 nhánh mới cho live code</t>
+  </si>
+  <si>
+    <t>git checkout -b merge-live-theme live/main</t>
+  </si>
+  <si>
+    <t>đứng ở nhánh main</t>
+  </si>
+  <si>
+    <t>git checkout main</t>
+  </si>
+  <si>
+    <t>merge từ nhanh merge-live-theme vào main</t>
+  </si>
+  <si>
+    <t>git merge merge-live-theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nếu như có bug không đồng bộ history merge thì sử dụng lệnh sau để đồng ý all history </t>
+  </si>
+  <si>
+    <t>git merge merge-live-theme --allow-unrelated-histories</t>
+  </si>
+  <si>
+    <t>xử lí conflic từng file bằng thủ công</t>
+  </si>
+  <si>
+    <t>tài khoản thường ở site live https://www.designerboysart.com</t>
+  </si>
+  <si>
+    <t>phandong752@gmail.com</t>
+  </si>
+  <si>
+    <t>pass: phandong752</t>
+  </si>
+  <si>
+    <t>Order Printer Pro</t>
+  </si>
+  <si>
+    <t>để tùy chỉnh trang checkout, order email</t>
+  </si>
+  <si>
+    <t>có thể sử dụng cho gói shopify basic</t>
+  </si>
+  <si>
+    <t>ứng dụng tốt, có đội hỗ trợ online</t>
+  </si>
+  <si>
+    <t>tạo button để click tạo page pdf, có thể in nó hoặc download về máy</t>
+  </si>
+  <si>
+    <t>Uploadly - File Upload</t>
+  </si>
+  <si>
+    <t>ứng dụng cho phép người dùng tải hình ảnh lên khi mua hàng</t>
+  </si>
+  <si>
+    <t>nó có thể cho hình ảnh đó vào order admin</t>
+  </si>
+  <si>
+    <t>chưa làm được hình ảnh đó xuất hiện ở fuliment mail</t>
+  </si>
+  <si>
+    <t>tài khoản vip của live site designboy\</t>
+  </si>
+  <si>
+    <t>jason@sydneyecommerce.com.au</t>
+  </si>
+  <si>
+    <t>DBA2025!</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Matrixify</t>
+  </si>
+  <si>
+    <t>https://apps.shopify.com/excel-export-import?st_source=autocomplete&amp;surface_detail=autocomplete_apps</t>
+  </si>
+  <si>
+    <t>chuyên export import all các thứ trong page</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>https://designerboysart.com/</t>
+  </si>
+  <si>
+    <t>https://www.ocdskateshop.com.au/</t>
+  </si>
+  <si>
+    <t>https://evolvegamingpc.com.au/</t>
+  </si>
+  <si>
+    <t>lĩnh vực</t>
+  </si>
+  <si>
+    <t>đồ áo, dày dép</t>
+  </si>
+  <si>
+    <t>máy tính</t>
+  </si>
+  <si>
+    <t>tranh ảnh</t>
+  </si>
+  <si>
+    <t>Tổng quan</t>
+  </si>
+  <si>
+    <t>mục đích là để hook vào logic xử lí của app bss mà không cần chỉnh sửa code gốc của app</t>
+  </si>
+  <si>
+    <t>cơ chế hoạt động</t>
+  </si>
+  <si>
+    <t>khởi tạo hệ thống hook nội bộ</t>
+  </si>
+  <si>
+    <t>window.bssB2BHooks = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  actions: {},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filters: {}</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>giúp đăng kí các action và filter như worldpress</t>
+  </si>
+  <si>
+    <t>cái này là của app tạo ra</t>
+  </si>
+  <si>
+    <t>các hook được sử dụng trong file</t>
+  </si>
+  <si>
+    <t>detect:product_variant</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>custom:cart/showSubtotalPrice</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>custom:prepareDiscountPrices</t>
+  </si>
+  <si>
+    <r>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>một hành động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bạn muốn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thêm vào một thời điểm nhất định</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong quá trình thực thi chương trình (mà không thay đổi dữ liệu).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dùng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can thiệp vào dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trước khi nó được hiển thị hoặc xử lý tiếp theo.</t>
+    </r>
+  </si>
+  <si>
+    <t>thiết lập hệ thống hook để các phần code trong file không đụng vào mã gốc của app</t>
+  </si>
+  <si>
+    <t>action, callback sẽ được gọi khi tới thời điểm xử lí tương ứng của cái tag của app</t>
+  </si>
+  <si>
+    <t>filter, nhận dữ liệu, xử lí và trả lại</t>
+  </si>
+  <si>
+    <t>BSS_B2B</t>
+  </si>
+  <si>
+    <t>kiểu như namespace chính cho app BSS</t>
+  </si>
+  <si>
+    <t>kiểu như action thì callback 1 hàm nào đó để can thiệp vào sự kiện nội bộ của app</t>
+  </si>
+  <si>
+    <t>còn filter kiểu như cũng callback 1 hàm nhưng để can thiệp dữ liệu trong quá trình chạy app trên site</t>
+  </si>
+  <si>
+    <t>bssB2Bhooks là nơi lưu trữ tất cả các action &amp; filter theo tên/tag</t>
+  </si>
+  <si>
+    <t>cho phép thêm các action và filter tùy chỉnh vào app</t>
+  </si>
+  <si>
+    <t>phát hiện variant ID từ url parameter</t>
+  </si>
+  <si>
+    <t>mục đích để hiển thị đúng giá cho sản phẩm khi load trang</t>
+  </si>
+  <si>
+    <t>hoặc nếu không có variant thì sẽ là sp gốc</t>
+  </si>
+  <si>
+    <t>tùy chỉnh hiển thị trong giỏ hàng bằng cách sử dụng action hook</t>
+  </si>
+  <si>
+    <t>áp dụng giá trong rule trong bss app cho từng biến thể, từng sp được cài đặt trong đó</t>
+  </si>
+  <si>
+    <t>trong phần code</t>
+  </si>
+  <si>
+    <t>duyệt qua từng sản phẩm, từng variant</t>
+  </si>
+  <si>
+    <t>tìm rule rồi tính giá giảm</t>
+  </si>
+  <si>
+    <t>nếu có</t>
+  </si>
+  <si>
+    <t>gán lại giá sau giảm</t>
+  </si>
+  <si>
+    <t>lưu rule đã áp dụng</t>
+  </si>
+  <si>
+    <t>đặt flag ưu tiên hiển thị giá</t>
+  </si>
+  <si>
+    <t>nếu không có thay đổi thì xóa các flag</t>
+  </si>
+  <si>
+    <t>variant.bssB2bShowPriceKey hoặc product.bssB2bShowPriceKey,</t>
+  </si>
+  <si>
+    <t>lưu vào bộ nhớ tạm của app là storage để phần render dùng lại không cần ftech lại</t>
+  </si>
+  <si>
+    <t>Tính giá giảm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lưu lại giá mới vào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>variant.bssB2BPriceAfterCP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lưu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>appliedCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để biết rule nào đã áp dụng</t>
+    </r>
+  </si>
+  <si>
+    <t>ví dụ</t>
+  </si>
+  <si>
+    <t>giá gốc</t>
+  </si>
+  <si>
+    <t>appliedCP = { rule giảm giá là 10%}</t>
+  </si>
+  <si>
+    <t>bssB2BPriceAfterCP sẽ = 90, tức là giá sau giảm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CP_KEY là key để đánh dâu giá hiện tại đến từ custom pricing rule trong bss app</t>
+  </si>
+  <si>
+    <t>luồng flow</t>
+  </si>
+  <si>
+    <t>app bss chuẩn bị hiển thị sản phẩm</t>
+  </si>
+  <si>
+    <t>nó sẽ gọi hook custom:prepareDiscountPrices</t>
+  </si>
+  <si>
+    <t>sẽ gọi hàm callback, thực hiện các logics trong function đó như tìm rule, tính giá…</t>
+  </si>
+  <si>
+    <t>rồi cuối cùng app sẽ hiển thị giá trong hàm callback đó</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>CÁC HÀM TRONG APP</t>
+  </si>
+  <si>
+    <t>SO SÁNH</t>
+  </si>
+  <si>
+    <t>worldpress</t>
+  </si>
+  <si>
+    <t>gắn thêm hành vi khi xảy ra sự kiện nào đó</t>
+  </si>
+  <si>
+    <t>can thiệp và biến đổi dữ liệu rồi trả lại kết quả</t>
+  </si>
+  <si>
+    <t>shopify app bss</t>
+  </si>
+  <si>
+    <t>thực  thi hàm callback khi app gọi tới 1 hook</t>
+  </si>
+  <si>
+    <t>cho phép sửa dữ liệu trước khi app dùng dữ liệu đó</t>
+  </si>
+  <si>
+    <t>add_filter('the_content', 'add_thank_you_note');</t>
+  </si>
+  <si>
+    <t>add_action('wp_footer', 'custom_footer_note');</t>
+  </si>
+  <si>
+    <t>window.BSS_B2B.addAction("custom:cart/showSubtotalPrice", myFunction);</t>
+  </si>
+  <si>
+    <t>window.BSS_B2B.addFilter("custom:prepareDiscountPrices", myFilter);</t>
+  </si>
+  <si>
+    <t>gọi apply_filters('tag', $value)</t>
+  </si>
+  <si>
+    <t>cách gọi hàm</t>
+  </si>
+  <si>
+    <t>do_action('tag')</t>
+  </si>
+  <si>
+    <t>runAction('tag'); gọi ẩn trong app</t>
+  </si>
+  <si>
+    <t>runFilter('tag', data)</t>
+  </si>
+  <si>
+    <t>thời điểm gọi</t>
+  </si>
+  <si>
+    <t>tại bất cứ thời điểm nào do định nghĩa, vị trí đặt</t>
+  </si>
+  <si>
+    <t>cách đăng kí</t>
+  </si>
+  <si>
+    <t>add_action('tag', callback)</t>
+  </si>
+  <si>
+    <t>addAction('tag', callback)</t>
+  </si>
+  <si>
+    <t>add_filter('tag', callback)</t>
+  </si>
+  <si>
+    <t>addFilter('tag', callback)</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bắt buộc phải trả về để sửa giá trị</t>
+  </si>
+  <si>
+    <t>phải return để app tiếp tục xử lí</t>
+  </si>
+  <si>
+    <t>dùng cho</t>
+  </si>
+  <si>
+    <t>content, title…</t>
+  </si>
+  <si>
+    <t>biến thể, giá sản phẩm….</t>
+  </si>
+  <si>
+    <t>Khác nhau</t>
+  </si>
+  <si>
+    <t>giống nhau</t>
+  </si>
+  <si>
+    <t>cùng cơ chê hook system, gắn logic theo tag</t>
+  </si>
+  <si>
+    <t>cũng dự trên tương đồng, action là hành động, filter là xử lí dữ liệu</t>
+  </si>
+  <si>
+    <t>đều mở rộng tính năng mà không cần chỉnh sửa code gốc</t>
+  </si>
+  <si>
+    <t>đều dùng callback function để truyền vào hook</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>kiểu như action filter bss app là phiên bản hạn chế hơn so với của worlpress</t>
+  </si>
+  <si>
+    <t>khi app chạy qua các điểm tương ứng</t>
+  </si>
+  <si>
+    <t>Worlpress cũng có 1 số action fiter được định nghĩa sẵn như the_content, wp_footer, wp_header…</t>
+  </si>
+  <si>
+    <t>chạy trước khi render Html, vì code php trên server</t>
+  </si>
+  <si>
+    <t>chạy sau khi load trang, rồi hiển thị ở phần giá vì code js ở fronent</t>
+  </si>
+  <si>
+    <t>giá admin</t>
+  </si>
+  <si>
+    <t>giá nhân 1.1</t>
+  </si>
+  <si>
+    <t>giá cần hiển thị</t>
+  </si>
+  <si>
+    <t>format |money</t>
+  </si>
+  <si>
+    <t>Tiếp tục phân tích file bss.js ngày 04/08/2025</t>
+  </si>
+  <si>
+    <t>phần code comment</t>
+  </si>
+  <si>
+    <t>Gọi là toàn tứ kết hợp vô hiệu (nullish coalescing operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?? </t>
+  </si>
+  <si>
+    <t>?? Sẽ trả về hạng bên trái (a) nếu nó không phải null hoặc undefined</t>
+  </si>
+  <si>
+    <t>ngược lại trả về b</t>
+  </si>
+  <si>
+    <t>let result = a ?? B</t>
+  </si>
+  <si>
+    <t>lấy giá từ metafield hoặc giá cho toàn sản phẩm</t>
+  </si>
+  <si>
+    <t>cent là đơn vị nhỏ nhất của tiền tệ</t>
+  </si>
+  <si>
+    <t>1 UAD = 100 cent</t>
+  </si>
+  <si>
+    <t>$27.45 = 2745 cent</t>
+  </si>
+  <si>
+    <t>$2704.55 = 270455 cent</t>
+  </si>
+  <si>
+    <t>getRRPPrice</t>
+  </si>
+  <si>
+    <t>nếu có giá rrp thì xử lí tiếp</t>
+  </si>
+  <si>
+    <t>biến isCent để kiểm tra xem giá này đang là cent</t>
+  </si>
+  <si>
+    <t>270455 cent = 2704,55 AUD</t>
+  </si>
+  <si>
+    <t>hay đang fload 27.45 AUD</t>
+  </si>
+  <si>
+    <t>giả định &gt;1000 đang là cent</t>
+  </si>
+  <si>
+    <t>nếu cent thì trả nguyên, nếu float thì nhân 100 để convert sang cent</t>
+  </si>
+  <si>
+    <t>return luôn luôn là cent</t>
+  </si>
+  <si>
+    <t>updateRRPPricePrice</t>
+  </si>
+  <si>
+    <t>mục đích hiển thị giá RRP đã bao gồm thuế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu không có phần tử hiển thị hoặc variant thì thoát </t>
+  </si>
+  <si>
+    <t>if (!rrpValueElement || !variant) return;</t>
+  </si>
+  <si>
+    <t>const rawPrice = getRRPPrice(variant);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lấy giá RRP gốc của variant, đơn vị là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (VD: 270455)</t>
+    </r>
+  </si>
+  <si>
+    <t>const priceWithGST = rawPrice * GST_RATE;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tính giá sau thuế (VD: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>270455 * 1.1 = 297500.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cent).</t>
+    </r>
+  </si>
+  <si>
+    <t>const roundedPrice = Math.round(priceWithGST);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Làm tròn (VD: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>297500.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>297501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cent).</t>
+    </r>
+  </si>
+  <si>
+    <t>rrpValueElement.textContent = formatPrice(roundedPrice);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chuyển </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>297501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cent thành </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$2,975.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và hiển thị lên HTML.</t>
+    </r>
+  </si>
+  <si>
+    <t>console.log("raw metafield rrp_price =", variant?.metafields?.custom?.rrp_price);</t>
+  </si>
+  <si>
+    <t>console.log("getRRPPrice result =", getRRPPrice(variant));</t>
+  </si>
+  <si>
+    <t>in ra giá từ metafield rrp_price</t>
+  </si>
+  <si>
+    <t>in ra giá giá được xử lí từ hàm getRRPPrice</t>
+  </si>
+  <si>
+    <t>HÀM CHƯA CHUẨN, KHÔNG SỬ DỤNG ĐƯỢC</t>
+  </si>
+  <si>
+    <t> Khi load danh sách  collection những hàm nào sẽ liên quan. Hàm nào là quan trọng</t>
+  </si>
+  <si>
+    <t>prepareDiscountPrices(products)</t>
+  </si>
+  <si>
+    <t>tác dụng của hàm là áp dụng các rule trong app bss cho từng product variant</t>
+  </si>
+  <si>
+    <t>tính lại giá nếu có rule hợp lệ</t>
+  </si>
+  <si>
+    <t>lưu thông tin giá mới vào storage (variantStorage, productStorage) của bss appa</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>luồng của hàm</t>
+  </si>
+  <si>
+    <t>lấy danh sách các rule từ getCustomerAppliedRules()</t>
+  </si>
+  <si>
+    <t>duyệt qua full sản phẩm và variant</t>
+  </si>
+  <si>
+    <t>ktra rule nào phù hợp thì áp dụng</t>
+  </si>
+  <si>
+    <t>tính lại giá của nó calculateDiscount</t>
+  </si>
+  <si>
+    <t>gán giá mới bssB2BPriceAfterCP</t>
+  </si>
+  <si>
+    <t>cập nhật vào storage nội bộ của bss ap</t>
+  </si>
+  <si>
+    <t>đây là object lưu tạm trong RAM(javascript runtime) do team bss tạo ra</t>
+  </si>
+  <si>
+    <t>để lưu thông tin variant/product đã tính giá</t>
+  </si>
+  <si>
+    <t>để k cần tính lại khi người dùng chọn lại cái biến thể vừa chọn, giúp nhanh hơn</t>
+  </si>
+  <si>
+    <t>giúp lấy giá trị nhanh hơn</t>
+  </si>
+  <si>
+    <t>lưu trong bộ nhớ của trình duyệt, khi trang còn mở, load trang là mất</t>
+  </si>
+  <si>
+    <t>getPriceBSSB2B()</t>
+  </si>
+  <si>
+    <t>Dùng để lấy giá đã xử lý cho một product variant cụ thể.</t>
+  </si>
+  <si>
+    <t>Có thể được gọi từ component hiển thị product item trên trang collection.</t>
+  </si>
+  <si>
+    <t>Tính toán logic: Price List, Custom Price, Quantity Discount, fallback giá gốc * 1.1</t>
+  </si>
+  <si>
+    <t>hôm trước áp dụng cho /pages/artist/michelle-oppenheimer</t>
+  </si>
+  <si>
+    <t>clone sản phẩm để tránh thay đổi object gốc</t>
+  </si>
+  <si>
+    <t>detectVariant()</t>
+  </si>
+  <si>
+    <t>thường dùng ở product detail</t>
+  </si>
+  <si>
+    <t>nhưng có thể dùng được đẻ xác định variant khi click sản phẩm từ collection</t>
+  </si>
+  <si>
+    <t>kiểm tra trong app có rule cho variant đó không</t>
+  </si>
+  <si>
+    <t>check có bss app có load không, nếu k sẽ trả về price * 1.1 cho b2c</t>
+  </si>
+  <si>
+    <t>này cho b2b</t>
+  </si>
+  <si>
+    <t>if (appliedRule) {</t>
+  </si>
+  <si>
+    <t>nếu có rule thì tính lại giá</t>
+  </si>
+  <si>
+    <t>Khi vào trang product detail. Hàm nào sẽ hoạt động hàm nào quan trọng</t>
+  </si>
+  <si>
+    <t>updateVariantURLAndInput()</t>
+  </si>
+  <si>
+    <t>updateRRPPrice(variant)</t>
+  </si>
+  <si>
+    <t>updateBSSPrice(variantId)</t>
+  </si>
+  <si>
+    <t>updateWholesalePrice(variant)</t>
+  </si>
+  <si>
+    <t>getRRPPrice(variant)</t>
+  </si>
+  <si>
+    <t>getRRPPrice(variant) ở giỏ hàng</t>
+  </si>
+  <si>
+    <t>MutationObserver</t>
+  </si>
+  <si>
+    <t>Khi thay đổi option  trong trang product detail sự kiện nào và hàm nào sẽ hoạt động</t>
+  </si>
+  <si>
+    <t>Loại sự kiện</t>
+  </si>
+  <si>
+    <t>Số lần dùng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>DOMContentLoaded</t>
+  </si>
+  <si>
+    <t>2 lần</t>
+  </si>
+  <si>
+    <t>Khởi tạo khi trang load xong</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>1 lần</t>
+  </si>
+  <si>
+    <t>Khi chọn option variant</t>
+  </si>
+  <si>
+    <t>Theo dõi thay đổi attribute</t>
+  </si>
+  <si>
+    <t>Hook cho subtotal cart</t>
+  </si>
+  <si>
+    <t>Hook xử lý giá</t>
+  </si>
+  <si>
+    <t>addAction (custom)</t>
+  </si>
+  <si>
+    <t>addFilter (custom)</t>
+  </si>
+  <si>
+    <t>Có bao nhiêu sự kiện được khởi tạo trong file đó</t>
+  </si>
+  <si>
+    <t>đưuọc gọi mỗi khi user thay đổi variant như artworksize...</t>
+  </si>
+  <si>
+    <t>khi tải trang xong DomContentLoaded thì khởi động toàn bộ hệ thống xử lí biến thể, giá và hook</t>
+  </si>
+  <si>
+    <t>gọi updateVariantURLAndInput() lần đầu, hàm này thực hiện phân tích các lựa chọn biến thể ban đầu</t>
+  </si>
+  <si>
+    <t>cập nhật window.history</t>
+  </si>
+  <si>
+    <t>xác định variant được chọn input[data-single-option-selector]</t>
+  </si>
+  <si>
+    <t>gán lại hiddenVArriantInput.value</t>
+  </si>
+  <si>
+    <t>gán SKU</t>
+  </si>
+  <si>
+    <t>gọi updateRRPPrice(variant)</t>
+  </si>
+  <si>
+    <t>goijupdateBSSPrice(variant.ID)</t>
+  </si>
+  <si>
+    <t>gọi updateWholesalePrice(variant)</t>
+  </si>
+  <si>
+    <t>gắn id vào tham số ?variant=id vào url</t>
+  </si>
+  <si>
+    <t>input name = "id"</t>
+  </si>
+  <si>
+    <t>cập nhật giá rrp</t>
+  </si>
+  <si>
+    <t>hiển thị giá b2b nếu có</t>
+  </si>
+  <si>
+    <t>gán giá trên nút add to cart</t>
+  </si>
+  <si>
+    <t>addEventListener('change')</t>
+  </si>
+  <si>
+    <t>khi thay đổi variant</t>
+  </si>
+  <si>
+    <t>input.addEventListener("change", updateVariantURLAndInput)</t>
+  </si>
+  <si>
+    <t>Khi thay đổi variant</t>
+  </si>
+  <si>
+    <t>updateRRPPrice, updateBSSPrice sau đó lại cập nhật giá b2c b2b</t>
+  </si>
+  <si>
+    <t>updateVariantURLAndInput() lần 2</t>
+  </si>
+  <si>
+    <t>lắng nge các sự kiện event listeners và mutationObserver</t>
+  </si>
+  <si>
+    <t>User chọn option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "change" event trên &lt;input&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tìm matchedVariant</t>
+  </si>
+  <si>
+    <t>update URL, form</t>
+  </si>
+  <si>
+    <t>gọi:</t>
+  </si>
+  <si>
+    <t>updateRRPPrice()</t>
+  </si>
+  <si>
+    <t>updateBSSPrice()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> detectProducts(), notifyObserver(), updateWholesalePrice()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> updateWholesalePrice()</t>
+  </si>
+  <si>
+    <t>load rồi cập nhật lại giá b2b từ bss</t>
+  </si>
+  <si>
+    <r>
+      <t>Hook BSS B2B (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>addAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>addFilter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) những cái hook nội bộ của app được gọi</t>
+    </r>
+  </si>
+  <si>
+    <t>matchedVariant là các variant sản phẩm dược tìm thấy dựa trên các options mà user đã chọn</t>
+  </si>
+  <si>
+    <t>hàm quan trọng updateVariantURLAndInput()</t>
+  </si>
+  <si>
+    <t>lấy lựa chọn hiện tại của user (ví dụ như ở type variant Artwork Size, Glazing Option)</t>
+  </si>
+  <si>
+    <t>sắp xếp đúng thứ tự để so sánh</t>
+  </si>
+  <si>
+    <t>tìm variant khớp với lựa chọn hiện tại của user</t>
+  </si>
+  <si>
+    <t>so sánh từng lựa chọn với title của variant để tìm đúng variant hiện đang được chọn</t>
+  </si>
+  <si>
+    <t>cập nhật url</t>
+  </si>
+  <si>
+    <t>gắn cái param ?variant=ID vào url</t>
+  </si>
+  <si>
+    <t>mục đích để dễ share, reload hoặc redirect đúng variant</t>
+  </si>
+  <si>
+    <t>gán lại variant.id vào form để khi submit sẽ đúng với lựa chọn của user</t>
+  </si>
+  <si>
+    <t>cập nhật mã SKY cho sản phẩm tương ứng với variant</t>
+  </si>
+  <si>
+    <t>hiển thị giá trên nút add to cart</t>
+  </si>
+  <si>
+    <t>gọi các hàm để cập nhật giá b2c, b2b</t>
+  </si>
+  <si>
+    <t>giá save</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>custom pricing rule trong app</t>
+  </si>
+  <si>
+    <t>tìm đúng variant theo ID</t>
+  </si>
+  <si>
+    <t>chỉ xử lí với đúng variant đang cần. Nếu không thì return null</t>
+  </si>
+  <si>
+    <t>nếu discount_type === 0 thì là giá cố định dùng luôn</t>
+  </si>
+  <si>
+    <t>ngược lại k phải thì gọi calcuateDiscount để áp dụng % giảm giá</t>
+  </si>
+  <si>
+    <t>nếu modifiedPrice khác với price gốc thì gán</t>
+  </si>
+  <si>
+    <t>trả về giá hiển thị cuối cùng theo thứ tự ưu tiên</t>
+  </si>
+  <si>
+    <t>Giá từ Price List (theo khách hàng)</t>
+  </si>
+  <si>
+    <t>Giá từ Custom Price (appliedCP)</t>
+  </si>
+  <si>
+    <t>Giá từ Quantity Discount</t>
+  </si>
+  <si>
+    <t>Nếu giá sau khuyến mãi khác giá gốc</t>
+  </si>
+  <si>
+    <t>Gán giá mới vào targetVariant.bssB2BPriceAfterCP (giá sau khi áp dụng Custom Price)</t>
+  </si>
+  <si>
+    <t>Gán key bssB2bShowPriceKey cho variant và product để đánh dấu loại giá đang áp dụng là "cp" (Custom Price).</t>
+  </si>
+  <si>
+    <t>giải pháp là làm tròn .00 trong admin</t>
+  </si>
+  <si>
+    <t>BSure Checkout Rules</t>
+  </si>
+  <si>
+    <t>để thay đổi hiển thị các phương thức thanh toán (bank posit, paypal…) ở checkout page</t>
+  </si>
+  <si>
+    <t>thay đổi dựa vào điều kiện trong app</t>
+  </si>
+  <si>
+    <t>https://apps.shopify.com/checkout-rules?search_id=acd32419-008e-4d7f-8aa5-dd644a9c63d1&amp;shallow_install_type=search&amp;surface_detail=BSure+Checkout+Rules&amp;surface_inter_position=1&amp;surface_intra_position=1&amp;surface_type=search</t>
+  </si>
+  <si>
+    <t>chỉnh sửa save 40% cho giống style của SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giá lẻ .01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ở trang product detail, </t>
+  </si>
+  <si>
+    <t>cần lưu ý chỗ metafield của frame options</t>
+  </si>
+  <si>
+    <t>chia create a vip account thành 2 block</t>
+  </si>
+  <si>
+    <t>cart page</t>
+  </si>
+  <si>
+    <t>giá</t>
+  </si>
+  <si>
+    <t>đơn vị tiền tệ AUD</t>
+  </si>
+  <si>
+    <t>kích thước chữ</t>
+  </si>
+  <si>
+    <t>giá popup bên phải</t>
+  </si>
+  <si>
+    <t>page template tạo trực tiếp</t>
+  </si>
+  <si>
+    <t>collection template thì merge code</t>
+  </si>
+  <si>
+    <t>thanh search header</t>
+  </si>
+  <si>
+    <t>tax invoice ok rồi</t>
+  </si>
+  <si>
+    <t>page gì đó thay đổi code trong js</t>
+  </si>
+  <si>
+    <t>Zip pay</t>
+  </si>
+  <si>
+    <t>vị trí setting/payment/add payment method</t>
+  </si>
+  <si>
+    <t>công dụng cho phép khách hàng mua sắm mà không cần thanh toán ngay lập tức</t>
+  </si>
+  <si>
+    <t>khách hàng có thể trả góp dần, ko tính lãi</t>
+  </si>
+  <si>
+    <t>doanh nghiệp vẫn nhận đủ tiền ngay, còn zip sẽ thu tiền lại sau từ khách hàng</t>
+  </si>
+  <si>
+    <t>lấy public api key</t>
+  </si>
+  <si>
+    <t>nYC7mpbagVd0MImXqGszgPzzBkeuWeXtRUZuiPHQkOM=</t>
+  </si>
+  <si>
+    <t>có 4 nhóm api chính</t>
+  </si>
+  <si>
+    <t>custom pricing (CP)</t>
+  </si>
+  <si>
+    <t>Quantity/Amount Break (QB)</t>
+  </si>
+  <si>
+    <t>Price List (PL)</t>
+  </si>
+  <si>
+    <t>Regisration Form (RF)</t>
+  </si>
+  <si>
+    <t>api lấy dữ liệu đáng ra phải là GET, nhưng ở đây lại dùng POST, Họ tiêu chuẩn hoá body {domain, accessKey, …} by-domain”, “get-by-id”, v.v. đều là POST.</t>
+  </si>
+  <si>
+    <t>cho mọi endpoint và cần payload phức tạp (ids/tags/pagination), nên dùng POST nhất quán—even cho truy vấn. Điều này ghi rõ ngay tại các endpoint “get-</t>
+  </si>
+  <si>
+    <t>định giá theo khách/nhóm khách</t>
+  </si>
+  <si>
+    <t>chiết khấu theo bậc số lượng/giá trị</t>
+  </si>
+  <si>
+    <t>bảng giá theo sản phẩm/variant cho từng đối tượng</t>
+  </si>
+  <si>
+    <t>lấy form, tạo wholesaler, duyệt/từ chối</t>
+  </si>
+  <si>
+    <t>baseUrl = https://b2b-solution-public-api.bsscommerce.com/api/v1</t>
+  </si>
+  <si>
+    <r>
+      <t>domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>dev-designerboys.myshopify.com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> accessKey = nYC7mpbagVd0MImXqGszgPzzBkeuWeXtRUZuiPHQkOM=</t>
+  </si>
+  <si>
+    <t>Delete rule , "id" là id của rule</t>
+  </si>
+  <si>
+    <t>"id" của sản phẩm admin là 13 số</t>
+  </si>
+  <si>
+    <t>căn chỉnh footer</t>
+  </si>
+  <si>
+    <t>các template .json thay đổi</t>
+  </si>
+  <si>
+    <t>collection template</t>
+  </si>
+  <si>
+    <t>print-art</t>
+  </si>
+  <si>
+    <t>textured-art</t>
+  </si>
+  <si>
+    <t>page template</t>
+  </si>
+  <si>
+    <t>popup khi bấm (i), tạo page để có nó</t>
+  </si>
+  <si>
+    <t>/pages/frames</t>
+  </si>
+  <si>
+    <t>our-collections</t>
+  </si>
+  <si>
+    <t>frames-sizing</t>
+  </si>
+  <si>
+    <t>vip-trade-account</t>
+  </si>
+  <si>
+    <t>glazing</t>
+  </si>
+  <si>
+    <t>platinum-canvas-art</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>tải file từ live về</t>
+  </si>
+  <si>
+    <t>xử lí chia cho 1.1</t>
+  </si>
+  <si>
+    <t>sản phẩm</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>check page</t>
+  </si>
+  <si>
+    <t>/pages/artist/michelle-oppenheimer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2747,13 +3984,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2835,12 +4065,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2877,7 +4129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2953,12 +4205,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2966,10 +4227,61 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2978,7 +4290,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3023,16 +4335,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3040,101 +4349,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3144,6 +4425,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3165,125 +4500,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2913904</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="6096000"/>
-          <a:ext cx="5971429" cy="5038725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>418348</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104106</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8924925" y="5991225"/>
-          <a:ext cx="6019048" cy="5352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10563225" y="809625"/>
-          <a:ext cx="5848350" cy="3876675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3365,13 +4581,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>419</xdr:row>
+      <xdr:row>415</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>199177</xdr:colOff>
-      <xdr:row>429</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>28337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3403,13 +4619,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>677440</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>454</xdr:row>
       <xdr:rowOff>124374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3441,13 +4657,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>468</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>77194</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>162745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3479,13 +4695,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19998</xdr:colOff>
-      <xdr:row>486</xdr:row>
+      <xdr:row>482</xdr:row>
       <xdr:rowOff>152740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3517,13 +4733,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>491</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1162986</xdr:colOff>
-      <xdr:row>513</xdr:row>
+      <xdr:row>509</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3555,13 +4771,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>542</xdr:row>
+      <xdr:row>538</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3581,6 +4797,771 @@
         <a:xfrm>
           <a:off x="11849100" y="107118151"/>
           <a:ext cx="5019675" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>229230</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="2733675"/>
+          <a:ext cx="4515480" cy="1524213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76976</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="4953000"/>
+          <a:ext cx="5563376" cy="1638529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>29345</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="6667500"/>
+          <a:ext cx="5515745" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238872</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>133779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="19392900"/>
+          <a:ext cx="5353797" cy="3077004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>96073</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="23117175"/>
+          <a:ext cx="5896798" cy="1848108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95935</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>114393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="44262675"/>
+          <a:ext cx="4906060" cy="666843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191108</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>162102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="45424725"/>
+          <a:ext cx="4353533" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10538</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>152444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="47320200"/>
+          <a:ext cx="7259063" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581522</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>114343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="47863125"/>
+          <a:ext cx="3562847" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524449</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>133395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="48434625"/>
+          <a:ext cx="4115374" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182011</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>133402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="49149000"/>
+          <a:ext cx="7421011" cy="371527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505221</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>181072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="49825275"/>
+          <a:ext cx="2838846" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200894</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>66711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="50720625"/>
+          <a:ext cx="6230219" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572090</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>133395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="31861125"/>
+          <a:ext cx="4229690" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419837</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>66710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="32442150"/>
+          <a:ext cx="5277587" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532801</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>133245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="33061275"/>
+          <a:ext cx="4790476" cy="838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95771</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>105021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="34394775"/>
+          <a:ext cx="3734321" cy="1762371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>162374</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>162026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="38728650"/>
+          <a:ext cx="3219899" cy="724001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238582</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>114483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="37328475"/>
+          <a:ext cx="3277057" cy="1314633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495965</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="39290626"/>
+          <a:ext cx="4763165" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3855,621 +5836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J62"/>
+  <dimension ref="B2:W556"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="89.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="34"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9.140625" style="34"/>
-    <col min="9" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="9.140625" style="34"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:5">
-      <c r="B4" s="58" t="s">
-        <v>566</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="62" t="s">
-        <v>582</v>
-      </c>
-      <c r="C5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D5" t="s">
-        <v>584</v>
-      </c>
-      <c r="E5" s="58"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="59">
-        <v>1</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>556</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>556</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="59">
-        <v>2</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>557</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>574</v>
-      </c>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="59">
-        <v>3</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>558</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>575</v>
-      </c>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="59">
-        <v>4</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>559</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>559</v>
-      </c>
-      <c r="E9" s="60"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="59">
-        <v>5</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>560</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" s="60"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="59">
-        <v>6</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="E11" s="60"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="59">
-        <v>7</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>562</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>562</v>
-      </c>
-      <c r="E12" s="60"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="59">
-        <v>8</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>563</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>577</v>
-      </c>
-      <c r="E13" s="60"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="59">
-        <v>9</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>564</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>564</v>
-      </c>
-      <c r="E14" s="60"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="59">
-        <v>10</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>565</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>565</v>
-      </c>
-      <c r="E15" s="60"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="58" t="s">
-        <v>585</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="62" t="s">
-        <v>582</v>
-      </c>
-      <c r="C17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E17" s="58"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="59">
-        <v>1</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>567</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>567</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="59">
-        <v>2</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="59">
-        <v>3</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>569</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>569</v>
-      </c>
-      <c r="E20" s="60"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="59">
-        <v>4</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>570</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>558</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="J21" s="56"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="59">
-        <v>5</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>571</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>557</v>
-      </c>
-      <c r="E22" s="60"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="59">
-        <v>6</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>572</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>563</v>
-      </c>
-      <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="59">
-        <v>7</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>573</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>560</v>
-      </c>
-      <c r="E24" s="60"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="6">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="6">
-        <v>3</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="57"/>
-      <c r="C59" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="57"/>
-      <c r="C61" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="57"/>
-      <c r="C62" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E6:E15"/>
-    <mergeCell ref="E19:E24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="16" max="16" width="13.42578125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="F6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="C11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>520</v>
-      </c>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>521</v>
-      </c>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>522</v>
-      </c>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="C16" t="s">
-        <v>525</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="3:16">
-      <c r="D17" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="D18" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16">
-      <c r="C19" t="s">
-        <v>528</v>
-      </c>
-      <c r="P19" s="33"/>
-    </row>
-    <row r="20" spans="3:16">
-      <c r="D20" t="s">
-        <v>529</v>
-      </c>
-      <c r="P20" s="33"/>
-    </row>
-    <row r="21" spans="3:16">
-      <c r="D21" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
-      <c r="C22" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="D23" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16">
-      <c r="D24" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="D25" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16">
-      <c r="D26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="33" spans="14:15">
-      <c r="N33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="34" spans="14:15">
-      <c r="N34" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="35" spans="14:15">
-      <c r="N35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:O25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="6:15">
-      <c r="H3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="6:15">
-      <c r="H4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="6:15">
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="6:15">
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="6:15">
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="6:15">
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15">
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15">
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15">
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15">
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15">
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15">
-      <c r="O15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" t="s">
-        <v>617</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W540"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="J562" sqref="J562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6273,916 +7643,934 @@
         <v>317</v>
       </c>
     </row>
-    <row r="313" spans="3:5" ht="23.25">
-      <c r="C313" s="22" t="s">
-        <v>356</v>
-      </c>
+    <row r="313" spans="3:5">
+      <c r="C313" s="21"/>
     </row>
     <row r="314" spans="3:5">
-      <c r="C314" s="21">
+      <c r="C314" s="21"/>
+    </row>
+    <row r="315" spans="3:5">
+      <c r="C315" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E315" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="316" spans="3:5">
+      <c r="C316" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D314" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="315" spans="3:5">
-      <c r="C315" s="21">
-        <v>2</v>
-      </c>
-      <c r="D315" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="316" spans="3:5">
-      <c r="C316" s="21">
-        <v>3</v>
-      </c>
-      <c r="D316" t="s">
-        <v>359</v>
+      <c r="D316" s="22" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="3:5">
-      <c r="C317" s="21"/>
+      <c r="C317" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" s="22" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="318" spans="3:5">
-      <c r="C318" s="21"/>
+      <c r="C318" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" s="22" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="319" spans="3:5">
-      <c r="C319" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="E319" t="s">
-        <v>361</v>
+      <c r="C319" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319" s="22" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="320" spans="3:5">
       <c r="C320" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D320" s="23" t="s">
-        <v>362</v>
+      <c r="D320" s="22" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="3:4">
-      <c r="C321" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D321" s="23" t="s">
-        <v>363</v>
+      <c r="C321" s="22" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="3:4">
-      <c r="C322" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D322" s="23" t="s">
-        <v>364</v>
+      <c r="D322" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="3:4">
-      <c r="C323" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>365</v>
+      <c r="D323" s="17" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="3:4">
-      <c r="C324" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D324" s="23" t="s">
-        <v>366</v>
+      <c r="D324" s="17" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="3:4">
-      <c r="C325" s="23" t="s">
-        <v>367</v>
+      <c r="C325" s="22" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="3:4">
       <c r="D326" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="3:4">
       <c r="D327" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="3:4">
       <c r="D328" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="3:4">
-      <c r="C329" s="23" t="s">
-        <v>371</v>
+      <c r="C329" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="3:4">
       <c r="D330" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="3:4">
-      <c r="D331" s="17" t="s">
-        <v>373</v>
+      <c r="D331" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="3:4">
-      <c r="D332" s="17" t="s">
-        <v>374</v>
+      <c r="D332" s="23" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="3:4">
-      <c r="C333" t="s">
-        <v>375</v>
+      <c r="D333" s="23" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="3:4">
-      <c r="D334" t="s">
-        <v>376</v>
+      <c r="C334" s="22" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="335" spans="3:4">
       <c r="D335" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="336" spans="3:4">
-      <c r="D336" s="24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="337" spans="3:5">
-      <c r="D337" s="24" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="338" spans="3:5">
-      <c r="C338" s="23" t="s">
+    <row r="338" spans="3:7">
+      <c r="C338" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="339" spans="3:5">
+    <row r="339" spans="3:7">
       <c r="D339" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="342" spans="3:5">
-      <c r="C342" s="25" t="s">
+    <row r="340" spans="3:7">
+      <c r="D340" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="343" spans="3:5">
+    <row r="341" spans="3:7">
+      <c r="D341" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="342" spans="3:7">
+      <c r="D342" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="343" spans="3:7">
       <c r="D343" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="344" spans="3:5">
-      <c r="D344" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="345" spans="3:5">
-      <c r="D345" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="346" spans="3:5">
-      <c r="D346" t="s">
+    <row r="346" spans="3:7">
+      <c r="C346" s="24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="347" spans="3:5">
-      <c r="D347" t="s">
+    <row r="347" spans="3:7">
+      <c r="C347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" s="22" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="350" spans="3:5">
-      <c r="C350" s="25" t="s">
+    <row r="348" spans="3:7">
+      <c r="D348" t="s">
+        <v>322</v>
+      </c>
+      <c r="E348" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="351" spans="3:5">
+    <row r="349" spans="3:7">
+      <c r="C349" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>389</v>
+      </c>
+      <c r="G349" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="350" spans="3:7">
+      <c r="C350" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="351" spans="3:7">
       <c r="C351" t="s">
         <v>1</v>
       </c>
-      <c r="D351" s="23" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="352" spans="3:5">
+      <c r="D351" t="s">
+        <v>391</v>
+      </c>
+      <c r="G351" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="352" spans="3:7">
+      <c r="C352" t="s">
+        <v>1</v>
+      </c>
       <c r="D352" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="353" spans="2:12">
+      <c r="D353" t="s">
         <v>322</v>
       </c>
-      <c r="E352" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="353" spans="3:12">
-      <c r="C353" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" t="s">
-        <v>391</v>
-      </c>
-      <c r="G353" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="354" spans="3:12">
-      <c r="C354" t="s">
-        <v>1</v>
-      </c>
+      <c r="E353" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="354" spans="2:12">
       <c r="D354" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="355" spans="3:12">
+        <v>322</v>
+      </c>
+      <c r="E354" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="355" spans="2:12">
       <c r="C355" t="s">
         <v>1</v>
       </c>
-      <c r="D355" t="s">
-        <v>393</v>
-      </c>
-      <c r="G355" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="356" spans="3:12">
-      <c r="C356" t="s">
-        <v>1</v>
-      </c>
+      <c r="D355" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="K355" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="356" spans="2:12">
       <c r="D356" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="357" spans="3:12">
+        <v>322</v>
+      </c>
+      <c r="E356" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="357" spans="2:12">
       <c r="D357" t="s">
         <v>322</v>
       </c>
       <c r="E357" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="358" spans="3:12">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="358" spans="2:12">
       <c r="D358" t="s">
         <v>322</v>
       </c>
       <c r="E358" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="359" spans="3:12">
-      <c r="C359" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="359" spans="2:12">
+      <c r="D359" t="s">
+        <v>322</v>
+      </c>
+      <c r="E359" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="360" spans="2:12">
+      <c r="C360" t="s">
         <v>1</v>
       </c>
-      <c r="D359" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="K359" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="360" spans="3:12">
       <c r="D360" t="s">
-        <v>322</v>
-      </c>
-      <c r="E360" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="361" spans="3:12">
-      <c r="D361" t="s">
-        <v>322</v>
-      </c>
-      <c r="E361" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="362" spans="3:12">
-      <c r="D362" t="s">
-        <v>322</v>
-      </c>
-      <c r="E362" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="363" spans="3:12">
-      <c r="D363" t="s">
-        <v>322</v>
-      </c>
-      <c r="E363" t="s">
+      <c r="G360" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="364" spans="3:12">
-      <c r="C364" t="s">
+    <row r="362" spans="2:12">
+      <c r="J362" t="s">
         <v>1</v>
       </c>
-      <c r="D364" t="s">
+      <c r="K362" t="s">
         <v>404</v>
       </c>
-      <c r="G364" t="s">
+      <c r="L362" s="25" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="366" spans="3:12">
-      <c r="J366" t="s">
+    <row r="363" spans="2:12">
+      <c r="J363" t="s">
         <v>1</v>
       </c>
-      <c r="K366" t="s">
+      <c r="K363" t="s">
         <v>406</v>
       </c>
-      <c r="L366" s="26" t="s">
+      <c r="L363" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="367" spans="3:12">
-      <c r="J367" t="s">
+    <row r="367" spans="2:12">
+      <c r="B367" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="368" spans="2:12">
+      <c r="B368">
         <v>1</v>
       </c>
-      <c r="K367" t="s">
-        <v>408</v>
-      </c>
-      <c r="L367" t="s">
+      <c r="C368" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="371" spans="2:5">
-      <c r="B371" s="25" t="s">
+    <row r="369" spans="2:16">
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="372" spans="2:5">
+    <row r="370" spans="2:16">
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="371" spans="2:16">
+      <c r="B371">
+        <v>4</v>
+      </c>
+      <c r="C371" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="372" spans="2:16">
       <c r="B372">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="375" spans="2:16">
+      <c r="B375" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="376" spans="2:16">
+      <c r="C376" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="377" spans="2:16">
+      <c r="C377" s="22"/>
+      <c r="D377" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="378" spans="2:16">
+      <c r="C378" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="379" spans="2:16">
+      <c r="C379" s="22"/>
+      <c r="E379" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="380" spans="2:16">
+      <c r="C380" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="381" spans="2:16">
+      <c r="C381" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="383" spans="2:16">
+      <c r="O383" s="24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="384" spans="2:16">
+      <c r="O384" t="s">
+        <v>422</v>
+      </c>
+      <c r="P384" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="385" spans="2:15">
+      <c r="B385" t="s">
+        <v>424</v>
+      </c>
+      <c r="O385" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="386" spans="2:15">
+      <c r="O386" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="387" spans="2:15">
+      <c r="B387">
         <v>1</v>
       </c>
-      <c r="C372" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5">
-      <c r="B373">
+      <c r="C387" t="s">
+        <v>427</v>
+      </c>
+      <c r="O387" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="388" spans="2:15">
+      <c r="B388">
         <v>2</v>
       </c>
-      <c r="C373" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5">
-      <c r="B374">
+      <c r="C388" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="389" spans="2:15">
+      <c r="B389">
         <v>3</v>
       </c>
-      <c r="C374" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5">
-      <c r="B375">
+      <c r="C389" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="391" spans="2:15">
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="395" spans="2:15" ht="21">
+      <c r="C395" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="397" spans="2:15">
+      <c r="C397" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="399" spans="2:15">
+      <c r="B399" s="5">
+        <v>1</v>
+      </c>
+      <c r="C399" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="400" spans="2:15">
+      <c r="B400" s="5">
+        <v>2</v>
+      </c>
+      <c r="C400" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="B401" s="5">
+        <v>3</v>
+      </c>
+      <c r="C401" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402" s="5">
         <v>4</v>
       </c>
-      <c r="C375" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5">
-      <c r="B376">
-        <v>5</v>
-      </c>
-      <c r="C376" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="379" spans="2:5">
-      <c r="B379" s="25" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="380" spans="2:5">
-      <c r="C380" s="23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5">
-      <c r="C381" s="23"/>
-      <c r="D381" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5">
-      <c r="C382" s="23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5">
-      <c r="C383" s="23"/>
-      <c r="E383" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="384" spans="2:5">
-      <c r="C384" s="23" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="385" spans="2:16">
-      <c r="C385" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="387" spans="2:16">
-      <c r="O387" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="388" spans="2:16">
-      <c r="O388" t="s">
-        <v>424</v>
-      </c>
-      <c r="P388" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="389" spans="2:16">
-      <c r="B389" t="s">
-        <v>426</v>
-      </c>
-      <c r="O389" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="390" spans="2:16">
-      <c r="O390" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="391" spans="2:16">
-      <c r="B391">
-        <v>1</v>
-      </c>
-      <c r="C391" t="s">
-        <v>429</v>
-      </c>
-      <c r="O391" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="392" spans="2:16">
-      <c r="B392">
-        <v>2</v>
-      </c>
-      <c r="C392" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="393" spans="2:16">
-      <c r="B393">
-        <v>3</v>
-      </c>
-      <c r="C393" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="395" spans="2:16">
-      <c r="C395">
-        <v>1</v>
-      </c>
-      <c r="D395" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="399" spans="2:16" ht="21">
-      <c r="C399" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="C401" t="s">
-        <v>435</v>
+      <c r="C402" s="22" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="403" spans="2:4">
       <c r="B403" s="5">
-        <v>1</v>
-      </c>
-      <c r="C403" s="23" t="s">
-        <v>436</v>
+        <v>5</v>
+      </c>
+      <c r="C403" s="22" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="404" spans="2:4">
       <c r="B404" s="5">
-        <v>2</v>
-      </c>
-      <c r="C404" s="23" t="s">
-        <v>437</v>
+        <v>6</v>
+      </c>
+      <c r="C404" s="22" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="2:4">
       <c r="B405" s="5">
-        <v>3</v>
-      </c>
-      <c r="C405" s="23" t="s">
-        <v>438</v>
+        <v>7</v>
+      </c>
+      <c r="C405" s="22" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="406" spans="2:4">
       <c r="B406" s="5">
-        <v>4</v>
-      </c>
-      <c r="C406" s="23" t="s">
-        <v>439</v>
+        <v>8</v>
+      </c>
+      <c r="C406" s="22" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="407" spans="2:4">
       <c r="B407" s="5">
+        <v>9</v>
+      </c>
+      <c r="C407" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4">
+      <c r="C409" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4">
+      <c r="C410" s="22"/>
+    </row>
+    <row r="411" spans="2:4">
+      <c r="B411" s="27">
+        <v>1</v>
+      </c>
+      <c r="C411" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D411" s="28"/>
+    </row>
+    <row r="412" spans="2:4">
+      <c r="B412" s="27"/>
+      <c r="C412" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D412" s="28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4">
+      <c r="B413" s="27"/>
+      <c r="C413" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D413" s="28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4">
+      <c r="B414" s="27"/>
+      <c r="C414" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D414" s="28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4">
+      <c r="B415" s="27">
+        <v>2</v>
+      </c>
+      <c r="C415" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D415" s="28"/>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="B416" s="27">
+        <v>3</v>
+      </c>
+      <c r="C416" s="28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="417" spans="2:14">
+      <c r="B417" s="27">
+        <v>4</v>
+      </c>
+      <c r="C417" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="418" spans="2:14">
+      <c r="D418" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="419" spans="2:14">
+      <c r="D419" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="420" spans="2:14">
+      <c r="D420" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="421" spans="2:14">
+      <c r="D421" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="422" spans="2:14">
+      <c r="D422" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="423" spans="2:14">
+      <c r="B423" s="5">
         <v>5</v>
       </c>
-      <c r="C407" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="408" spans="2:4">
-      <c r="B408" s="5">
+      <c r="C423" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="424" spans="2:14">
+      <c r="B424" s="5">
         <v>6</v>
       </c>
-      <c r="C408" s="23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4">
-      <c r="B409" s="5">
+      <c r="C424" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="425" spans="2:14">
+      <c r="B425" s="5">
         <v>7</v>
       </c>
-      <c r="C409" s="23" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4">
-      <c r="B410" s="5">
-        <v>8</v>
-      </c>
-      <c r="C410" s="23" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4">
-      <c r="B411" s="5">
-        <v>9</v>
-      </c>
-      <c r="C411" s="23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="413" spans="2:4">
-      <c r="C413" s="23" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="414" spans="2:4">
-      <c r="C414" s="23"/>
-    </row>
-    <row r="415" spans="2:4">
-      <c r="B415" s="28">
+      <c r="C425" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="428" spans="2:14">
+      <c r="D428" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="429" spans="2:14">
+      <c r="D429" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="430" spans="2:14">
+      <c r="D430" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="431" spans="2:14">
+      <c r="D431" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="432" spans="2:14">
+      <c r="N432" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="433" spans="2:14">
+      <c r="B433" t="s">
+        <v>464</v>
+      </c>
+      <c r="N433" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4">
+      <c r="B455" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="B457">
         <v>1</v>
       </c>
-      <c r="C415" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="D415" s="29"/>
-    </row>
-    <row r="416" spans="2:4">
-      <c r="B416" s="28"/>
-      <c r="C416" s="30" t="s">
+      <c r="C457" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4">
+      <c r="C458" t="s">
         <v>1</v>
       </c>
-      <c r="D416" s="29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="417" spans="2:4">
-      <c r="B417" s="28"/>
-      <c r="C417" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D417" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="418" spans="2:4">
-      <c r="B418" s="28"/>
-      <c r="C418" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D418" s="29" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="419" spans="2:4">
-      <c r="B419" s="28">
+      <c r="D458" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4">
+      <c r="B460">
         <v>2</v>
       </c>
-      <c r="C419" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="D419" s="29"/>
-    </row>
-    <row r="420" spans="2:4">
-      <c r="B420" s="28">
-        <v>3</v>
-      </c>
-      <c r="C420" s="29" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="421" spans="2:4">
-      <c r="B421" s="28">
-        <v>4</v>
-      </c>
-      <c r="C421" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="422" spans="2:4">
-      <c r="D422" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="423" spans="2:4">
-      <c r="D423" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="424" spans="2:4">
-      <c r="D424" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4">
-      <c r="D425" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4">
-      <c r="D426" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="427" spans="2:4">
-      <c r="B427" s="5">
-        <v>5</v>
-      </c>
-      <c r="C427" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="428" spans="2:4">
-      <c r="B428" s="5">
-        <v>6</v>
-      </c>
-      <c r="C428" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="429" spans="2:4">
-      <c r="B429" s="5">
-        <v>7</v>
-      </c>
-      <c r="C429" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="432" spans="2:4">
-      <c r="D432" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="433" spans="2:14">
-      <c r="D433" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="434" spans="2:14">
-      <c r="D434" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="435" spans="2:14">
-      <c r="D435" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="436" spans="2:14">
-      <c r="N436" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="437" spans="2:14">
-      <c r="B437" t="s">
-        <v>466</v>
-      </c>
-      <c r="N437" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4">
-      <c r="B459" s="25" t="s">
-        <v>468</v>
+      <c r="C460" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="461" spans="2:4">
       <c r="B461">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C461" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462" spans="2:4">
+      <c r="B462">
+        <v>4</v>
+      </c>
       <c r="C462" t="s">
-        <v>1</v>
-      </c>
-      <c r="D462" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4">
+      <c r="B463">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="464" spans="2:4">
       <c r="B464">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C464" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="2:3">
       <c r="B465">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="466" spans="2:3">
       <c r="B466">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C466" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="467" spans="2:3">
-      <c r="B467">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3">
+      <c r="B468" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="490" spans="15:15">
+      <c r="O490" s="24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="501" spans="4:9" ht="23.25">
+      <c r="D501" s="30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="502" spans="4:9">
+      <c r="D502" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="503" spans="4:9">
+      <c r="D503" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="504" spans="4:9">
+      <c r="E504" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="505" spans="4:9">
+      <c r="E505" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="506" spans="4:9">
+      <c r="E506" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="507" spans="4:9">
+      <c r="D507" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="508" spans="4:9">
+      <c r="E508" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="509" spans="4:9">
+      <c r="E509" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="510" spans="4:9">
+      <c r="D510" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="511" spans="4:9">
+      <c r="E511" t="s">
+        <v>488</v>
+      </c>
+      <c r="H511" t="s">
+        <v>489</v>
+      </c>
+      <c r="I511" s="31"/>
+    </row>
+    <row r="512" spans="4:9">
+      <c r="E512" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="514" spans="3:17">
+      <c r="D514" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="3:17">
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="516" spans="3:17">
+      <c r="D516">
+        <v>2</v>
+      </c>
+      <c r="E516" t="s">
+        <v>493</v>
+      </c>
+      <c r="G516" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="3:17">
+      <c r="D517">
+        <v>3</v>
+      </c>
+      <c r="E517" t="s">
+        <v>495</v>
+      </c>
+      <c r="G517" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="518" spans="3:17">
+      <c r="Q518">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="521" spans="3:17">
+      <c r="C521" t="s">
         <v>5</v>
       </c>
-      <c r="C467" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="468" spans="2:3">
-      <c r="B468">
-        <v>6</v>
-      </c>
-      <c r="C468" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="469" spans="2:3">
-      <c r="B469">
-        <v>7</v>
-      </c>
-      <c r="C469" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="470" spans="2:3">
-      <c r="B470">
-        <v>8</v>
-      </c>
-      <c r="C470" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="472" spans="2:3">
-      <c r="B472" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="494" spans="15:15">
-      <c r="O494" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="505" spans="4:5" ht="23.25">
-      <c r="D505" s="31" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="506" spans="4:5">
-      <c r="D506" s="23" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="507" spans="4:5">
-      <c r="D507" s="23" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="508" spans="4:5">
-      <c r="E508" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="509" spans="4:5">
-      <c r="E509" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="510" spans="4:5">
-      <c r="E510" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="511" spans="4:5">
-      <c r="D511" s="23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="512" spans="4:5">
-      <c r="E512" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="513" spans="3:17">
-      <c r="E513" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="514" spans="3:17">
-      <c r="D514" s="23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="515" spans="3:17">
-      <c r="E515" t="s">
-        <v>490</v>
-      </c>
-      <c r="H515" t="s">
-        <v>491</v>
-      </c>
-      <c r="I515" s="32"/>
-    </row>
-    <row r="516" spans="3:17">
-      <c r="E516" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="518" spans="3:17">
-      <c r="D518" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q518">
+      <c r="D521">
         <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="3:17">
-      <c r="D519">
-        <v>1</v>
-      </c>
-      <c r="E519" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="520" spans="3:17">
-      <c r="D520">
-        <v>2</v>
-      </c>
-      <c r="E520" t="s">
-        <v>495</v>
-      </c>
-      <c r="G520" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q520">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="521" spans="3:17">
-      <c r="D521">
-        <v>3</v>
       </c>
       <c r="E521" t="s">
         <v>497</v>
       </c>
-      <c r="G521" t="s">
+    </row>
+    <row r="522" spans="3:17">
+      <c r="C522" t="s">
+        <v>5</v>
+      </c>
+      <c r="D522">
+        <v>2</v>
+      </c>
+      <c r="E522" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="522" spans="3:17">
-      <c r="Q522">
-        <v>33</v>
+    <row r="523" spans="3:17">
+      <c r="C523" t="s">
+        <v>5</v>
+      </c>
+      <c r="D523">
+        <v>3</v>
+      </c>
+      <c r="E523" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="524" spans="3:17">
+      <c r="D524">
+        <v>4</v>
+      </c>
+      <c r="E524" t="s">
+        <v>500</v>
+      </c>
+      <c r="P524" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q524" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="525" spans="3:17">
@@ -7190,10 +8578,13 @@
         <v>5</v>
       </c>
       <c r="D525">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E525" t="s">
-        <v>499</v>
+        <v>503</v>
+      </c>
+      <c r="Q525" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="526" spans="3:17">
@@ -7201,10 +8592,10 @@
         <v>5</v>
       </c>
       <c r="D526">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E526" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="527" spans="3:17">
@@ -7212,119 +8603,185 @@
         <v>5</v>
       </c>
       <c r="D527">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E527" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="528" spans="3:17">
+      <c r="C528" t="s">
+        <v>5</v>
+      </c>
       <c r="D528">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E528" t="s">
-        <v>502</v>
-      </c>
-      <c r="P528" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q528" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="529" spans="3:17">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="529" spans="3:14">
       <c r="C529" t="s">
         <v>5</v>
       </c>
       <c r="D529">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E529" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q529" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="530" spans="3:17">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="530" spans="3:14">
       <c r="C530" t="s">
         <v>5</v>
       </c>
       <c r="D530">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E530" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="531" spans="3:17">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="531" spans="3:14">
       <c r="C531" t="s">
         <v>5</v>
       </c>
       <c r="D531">
+        <v>11</v>
+      </c>
+      <c r="E531" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="534" spans="3:14">
+      <c r="C534" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="535" spans="3:14">
+      <c r="C535" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="536" spans="3:14">
+      <c r="C536" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="539" spans="3:14">
+      <c r="C539" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="540" spans="3:14">
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="541" spans="3:14">
+      <c r="C541">
+        <v>2</v>
+      </c>
+      <c r="D541" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="542" spans="3:14">
+      <c r="C542">
+        <v>3</v>
+      </c>
+      <c r="D542" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="543" spans="3:14">
+      <c r="C543">
+        <v>4</v>
+      </c>
+      <c r="D543" t="s">
+        <v>551</v>
+      </c>
+      <c r="N543" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="544" spans="3:14">
+      <c r="C544">
+        <v>5</v>
+      </c>
+      <c r="D544" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="N544" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="545" spans="3:14">
+      <c r="C545">
+        <v>6</v>
+      </c>
+      <c r="D545" t="s">
+        <v>555</v>
+      </c>
+      <c r="N545" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="546" spans="3:14">
+      <c r="C546">
         <v>7</v>
       </c>
-      <c r="E531" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="532" spans="3:17">
-      <c r="C532" t="s">
-        <v>5</v>
-      </c>
-      <c r="D532">
+      <c r="D546" t="s">
+        <v>557</v>
+      </c>
+      <c r="N546" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="547" spans="3:14">
+      <c r="C547">
         <v>8</v>
       </c>
-      <c r="E532" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="533" spans="3:17">
-      <c r="C533" t="s">
-        <v>5</v>
-      </c>
-      <c r="D533">
+      <c r="D547" t="s">
+        <v>559</v>
+      </c>
+      <c r="N547" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="548" spans="3:14">
+      <c r="C548">
         <v>9</v>
       </c>
-      <c r="E533" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="534" spans="3:17">
-      <c r="C534" t="s">
-        <v>5</v>
-      </c>
-      <c r="D534">
+      <c r="D548" t="s">
+        <v>561</v>
+      </c>
+      <c r="N548" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="549" spans="3:14">
+      <c r="C549">
         <v>10</v>
       </c>
-      <c r="E534" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="535" spans="3:17">
-      <c r="C535" t="s">
-        <v>5</v>
-      </c>
-      <c r="D535">
-        <v>11</v>
-      </c>
-      <c r="E535" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="538" spans="3:17">
-      <c r="C538" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="539" spans="3:17">
-      <c r="C539" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="540" spans="3:17">
-      <c r="C540" t="s">
-        <v>515</v>
+      <c r="D549" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="555" spans="3:14">
+      <c r="F555" t="s">
+        <v>564</v>
+      </c>
+      <c r="L555" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="556" spans="3:14">
+      <c r="L556" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7335,37 +8792,39 @@
     <hyperlink ref="E107" r:id="rId4"/>
     <hyperlink ref="I234" r:id="rId5"/>
     <hyperlink ref="J238" r:id="rId6"/>
+    <hyperlink ref="C535" r:id="rId7"/>
+    <hyperlink ref="L555" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:P14"/>
+  <dimension ref="D3:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="4:16">
       <c r="E3" t="s">
-        <v>601</v>
+        <v>531</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>615</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="4:16">
       <c r="O4" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>614</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="4:16">
@@ -7373,10 +8832,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>532</v>
       </c>
       <c r="P5" t="s">
-        <v>616</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="4:16">
@@ -7384,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="4:16">
@@ -7392,10 +8851,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
+        <v>534</v>
       </c>
       <c r="J7" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="4:16">
@@ -7403,7 +8862,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="4:16">
@@ -7411,7 +8870,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="4:16">
@@ -7419,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -7430,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>608</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="4:16">
@@ -7438,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>609</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="4:16">
@@ -7446,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="4:16">
@@ -7454,365 +8913,660 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>611</v>
+        <v>541</v>
       </c>
       <c r="I14" t="s">
-        <v>612</v>
-      </c>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
+      <c r="L18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17">
+      <c r="L19" s="44" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17">
+      <c r="L20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" ht="16.5">
+      <c r="E21" s="7"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="25" spans="5:17">
+      <c r="N25" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q25" s="60">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17">
+      <c r="E26" s="7"/>
+      <c r="N26" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q26" s="59">
+        <v>2704.55</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17">
+      <c r="E27" s="7"/>
+      <c r="N27" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q27" s="61">
+        <v>2975.0050000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17">
+      <c r="E28" s="7"/>
+      <c r="N28" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q28" s="59">
+        <v>2975.01</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17">
+      <c r="E29" s="7"/>
+      <c r="N29" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F40"/>
+  <dimension ref="D3:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="31.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="166.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="101" customWidth="1"/>
+    <col min="7" max="7" width="218.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" ht="33">
-      <c r="D3" s="54" t="s">
+    <row r="3" spans="4:7" ht="33">
+      <c r="D3" s="73" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="4:6">
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-    </row>
-    <row r="5" spans="4:6" s="43" customFormat="1" ht="21">
-      <c r="D5" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" s="38">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+    </row>
+    <row r="4" spans="4:7">
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="4:7" s="40" customFormat="1" ht="21">
+      <c r="D5" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="38">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" s="35">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="38"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="40" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="35"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="37" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="38"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="40" t="s">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="35"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="37" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="38"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="40" t="s">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="35"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="38">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="35">
         <v>3</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="38"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="40" t="s">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="35"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="37" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="38"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="40" t="s">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="35"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="37" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="38"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="40" t="s">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="35"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="37" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="38">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" s="35">
         <v>4</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="37" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="38">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" s="35">
         <v>5</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="38"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="40" t="s">
+      <c r="F16" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="35"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="37" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="38"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="40" t="s">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="35"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="37" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="38"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="40" t="s">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="35"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="37" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="38">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="35">
         <v>6</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="37" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="38">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="35">
         <v>7</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="37" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="38"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="40" t="s">
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="35"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="37" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="38"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="40" t="s">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="35"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="37" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="38">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="35">
         <v>8</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="37" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="38">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="35">
         <v>9</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="37" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="38">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="35">
         <v>10</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="37" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="38">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="35">
         <v>11</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="37" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="38">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="84">
         <v>12</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="F28" s="40" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="38"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="40" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="38"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="40" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="38"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="40" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="38">
+      <c r="F28" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="85"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="86"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="35"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="35">
         <v>13</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="37" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="38">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="35">
         <v>14</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="37" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="38">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="35">
         <v>15</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="63">
+      <c r="F34" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="70">
         <v>16</v>
       </c>
-      <c r="E35" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="F35" s="64" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="11"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="64" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="11"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="64" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="63">
+      <c r="E35" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="71"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="72"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="70">
         <v>17</v>
       </c>
-      <c r="E38" s="65" t="s">
-        <v>599</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="E39" s="66"/>
-      <c r="F39" s="55" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="E40" s="66"/>
-      <c r="F40" s="55" t="s">
-        <v>597</v>
-      </c>
+      <c r="E38" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="71"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="72"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="64">
+        <v>18</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="69"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="69"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="65"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="64">
+        <v>19</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="69"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="65"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="63">
+        <v>20</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="64">
+        <v>21</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="11">
+        <v>22</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="11"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="11"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="11"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="11"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="11"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="11"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="11"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="11"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="11"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="D5:F34"/>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E41:E44"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="E38:E40"/>
@@ -7821,7 +9575,2205 @@
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D47"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G48" r:id="rId1"/>
+    <hyperlink ref="G49" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="21"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6">
+      <c r="C5" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="48">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="48">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="48">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="48"/>
+      <c r="D9" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="48"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="48"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="48"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="48"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="48"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="48"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="48"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="48"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="48"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="48"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="48"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="48"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="48"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="48"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="48"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="48"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="48"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="48"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="48"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="48"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="48"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V365"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="G344" sqref="G344"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="C3" s="49" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" s="49" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="D10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>597</v>
+      </c>
+      <c r="J12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>602</v>
+      </c>
+      <c r="J13" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>603</v>
+      </c>
+      <c r="J14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="J15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>615</v>
+      </c>
+      <c r="F18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>605</v>
+      </c>
+      <c r="I26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="E27" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="E28" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="E29" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>607</v>
+      </c>
+      <c r="I35" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="E36" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="4:22">
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>609</v>
+      </c>
+      <c r="I52" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="53" spans="4:22">
+      <c r="E53" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F53" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="54" spans="4:22">
+      <c r="E54" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F54" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" spans="4:22">
+      <c r="E55" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="56" spans="4:22">
+      <c r="G56" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="4:22">
+      <c r="G57" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="4:22">
+      <c r="H58" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="4:22">
+      <c r="H59" t="s">
+        <v>637</v>
+      </c>
+      <c r="T59" t="s">
+        <v>639</v>
+      </c>
+      <c r="U59" t="s">
+        <v>640</v>
+      </c>
+      <c r="V59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="4:22">
+      <c r="H60" t="s">
+        <v>638</v>
+      </c>
+      <c r="U60" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="61" spans="4:22">
+      <c r="G61" t="s">
+        <v>629</v>
+      </c>
+      <c r="U61" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="4:22">
+      <c r="H62" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="4:22">
+      <c r="H63" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="4:22">
+      <c r="H64" t="s">
+        <v>632</v>
+      </c>
+      <c r="L64" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="G65" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="G66" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" t="s">
+        <v>649</v>
+      </c>
+      <c r="C75" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="C76" s="50" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="D77" s="51"/>
+      <c r="E77" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="53"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="D78" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="55"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="D79" s="54"/>
+      <c r="E79" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="55"/>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="D80" s="54"/>
+      <c r="E80" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="54" t="s">
+        <v>661</v>
+      </c>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="55"/>
+    </row>
+    <row r="81" spans="3:18">
+      <c r="D81" s="54"/>
+      <c r="E81" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="55"/>
+    </row>
+    <row r="82" spans="3:18">
+      <c r="D82" s="54"/>
+      <c r="E82" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="54" t="s">
+        <v>689</v>
+      </c>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="55"/>
+    </row>
+    <row r="83" spans="3:18">
+      <c r="D83" s="54"/>
+      <c r="E83" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="54" t="s">
+        <v>672</v>
+      </c>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="55"/>
+    </row>
+    <row r="84" spans="3:18">
+      <c r="D84" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="55"/>
+    </row>
+    <row r="85" spans="3:18">
+      <c r="D85" s="54"/>
+      <c r="E85" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="55"/>
+    </row>
+    <row r="86" spans="3:18">
+      <c r="D86" s="54"/>
+      <c r="E86" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="54" t="s">
+        <v>662</v>
+      </c>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="55"/>
+    </row>
+    <row r="87" spans="3:18">
+      <c r="D87" s="54"/>
+      <c r="E87" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="55"/>
+    </row>
+    <row r="88" spans="3:18">
+      <c r="D88" s="54"/>
+      <c r="E88" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="54" t="s">
+        <v>674</v>
+      </c>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="55"/>
+    </row>
+    <row r="89" spans="3:18">
+      <c r="D89" s="54"/>
+      <c r="E89" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="55"/>
+    </row>
+    <row r="90" spans="3:18">
+      <c r="D90" s="54"/>
+      <c r="E90" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="55"/>
+    </row>
+    <row r="91" spans="3:18">
+      <c r="D91" s="56"/>
+      <c r="E91" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="F91" s="57" t="s">
+        <v>691</v>
+      </c>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="56" t="s">
+        <v>692</v>
+      </c>
+      <c r="L91" s="57"/>
+      <c r="M91" s="57"/>
+      <c r="N91" s="57"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="58"/>
+    </row>
+    <row r="92" spans="3:18">
+      <c r="D92" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18">
+      <c r="D93" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18">
+      <c r="C95" s="50" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18">
+      <c r="C96" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12">
+      <c r="C97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12">
+      <c r="C98" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12">
+      <c r="C99" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="18.75">
+      <c r="C103" s="62" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12">
+      <c r="C105" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12">
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12">
+      <c r="E107" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12">
+      <c r="E108" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12">
+      <c r="E109" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12">
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12">
+      <c r="E111" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12">
+      <c r="E112" t="s">
+        <v>701</v>
+      </c>
+      <c r="L112" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6">
+      <c r="E113" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6">
+      <c r="E115" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="E116" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="E117" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="F118" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="F119" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6">
+      <c r="F120" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6">
+      <c r="E121" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6">
+      <c r="E122" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6">
+      <c r="E125" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6">
+      <c r="E126" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6">
+      <c r="F127" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6">
+      <c r="E128" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="129" spans="3:18">
+      <c r="F129" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="130" spans="3:18">
+      <c r="E130" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="131" spans="3:18">
+      <c r="F131" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="132" spans="3:18">
+      <c r="E132" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="133" spans="3:18">
+      <c r="F133" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="134" spans="3:18">
+      <c r="E134" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="135" spans="3:18">
+      <c r="F135" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="136" spans="3:18">
+      <c r="E136" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="137" spans="3:18">
+      <c r="F137" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" spans="3:18">
+      <c r="E138" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="139" spans="3:18">
+      <c r="F139" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="140" spans="3:18">
+      <c r="E140" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="141" spans="3:18">
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="142" spans="3:18">
+      <c r="D142" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E142" t="s">
+        <v>735</v>
+      </c>
+      <c r="P142" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q142" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="R142" s="4"/>
+    </row>
+    <row r="143" spans="3:18">
+      <c r="F143" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="144" spans="3:18">
+      <c r="F144" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8">
+      <c r="F145" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8">
+      <c r="G146" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8">
+      <c r="H147" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8">
+      <c r="H148" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8">
+      <c r="H149" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8">
+      <c r="H150" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8">
+      <c r="H151" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8">
+      <c r="F153" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8">
+      <c r="G154" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8">
+      <c r="G155" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8">
+      <c r="H156" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8">
+      <c r="H157" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8">
+      <c r="H158" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8">
+      <c r="G159" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7">
+      <c r="D161" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E161" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="162" spans="4:7">
+      <c r="F162" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="163" spans="4:7">
+      <c r="F163" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7">
+      <c r="F164" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="165" spans="4:7">
+      <c r="F165" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="166" spans="4:7">
+      <c r="G166" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7">
+      <c r="G169" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7">
+      <c r="G170" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7">
+      <c r="G173" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7">
+      <c r="G179" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7">
+      <c r="G180" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7">
+      <c r="G191" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7">
+      <c r="G192" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="193" spans="7:9">
+      <c r="G193" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="194" spans="7:9">
+      <c r="G194" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="195" spans="7:9">
+      <c r="G195" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9">
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" spans="7:9">
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" spans="7:9">
+      <c r="G204" t="s">
+        <v>848</v>
+      </c>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" spans="7:9">
+      <c r="H205" t="s">
+        <v>849</v>
+      </c>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" spans="7:9">
+      <c r="H206" t="s">
+        <v>850</v>
+      </c>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" spans="7:9">
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" spans="7:9">
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="4:9">
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="4:9">
+      <c r="I210" s="4"/>
+    </row>
+    <row r="211" spans="4:9">
+      <c r="I211" s="4"/>
+    </row>
+    <row r="212" spans="4:9">
+      <c r="I212" s="4"/>
+    </row>
+    <row r="213" spans="4:9">
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="4:9">
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="4:9">
+      <c r="I215" s="4"/>
+    </row>
+    <row r="216" spans="4:9">
+      <c r="H216" t="s">
+        <v>845</v>
+      </c>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="4:9">
+      <c r="G217" t="s">
+        <v>844</v>
+      </c>
+      <c r="H217" t="s">
+        <v>846</v>
+      </c>
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="4:9">
+      <c r="G218" s="5">
+        <v>1</v>
+      </c>
+      <c r="H218" t="s">
+        <v>847</v>
+      </c>
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="4:9">
+      <c r="G219" s="5">
+        <v>2</v>
+      </c>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="4:9">
+      <c r="G220" s="5">
+        <v>3</v>
+      </c>
+      <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="4:9">
+      <c r="G221" s="5"/>
+      <c r="I221" s="4"/>
+    </row>
+    <row r="222" spans="4:9">
+      <c r="G222" s="5"/>
+      <c r="I222" s="4"/>
+    </row>
+    <row r="223" spans="4:9">
+      <c r="D223" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E223" t="s">
+        <v>758</v>
+      </c>
+      <c r="G223" s="5"/>
+      <c r="I223" s="4"/>
+    </row>
+    <row r="224" spans="4:9">
+      <c r="F224" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="225" spans="3:6">
+      <c r="F225" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6">
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6">
+      <c r="D228" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E228" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6">
+      <c r="D229" s="21"/>
+      <c r="F229" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6">
+      <c r="D230" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E230" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6">
+      <c r="D231" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E231" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6">
+      <c r="D232" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E232" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6">
+      <c r="D233" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E233" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6">
+      <c r="D234" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E234" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6">
+      <c r="D235" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E235" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6">
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="237" spans="3:6">
+      <c r="E237" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6">
+      <c r="E238" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="239" spans="3:6">
+      <c r="E239" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="240" spans="3:6">
+      <c r="E240" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="241" spans="3:9">
+      <c r="E241" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="242" spans="3:9">
+      <c r="F242" t="s">
+        <v>816</v>
+      </c>
+      <c r="G242" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="243" spans="3:9">
+      <c r="F243" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="244" spans="3:9">
+      <c r="F244" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="245" spans="3:9">
+      <c r="F245" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="246" spans="3:9">
+      <c r="F246" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="247" spans="3:9">
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="248" spans="3:9">
+      <c r="E248" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="249" spans="3:9">
+      <c r="E249" t="s">
+        <v>778</v>
+      </c>
+      <c r="I249" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="250" spans="3:9">
+      <c r="E250" t="s">
+        <v>781</v>
+      </c>
+      <c r="G250" t="s">
+        <v>776</v>
+      </c>
+      <c r="I250" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="251" spans="3:9">
+      <c r="E251" t="s">
+        <v>773</v>
+      </c>
+      <c r="G251" t="s">
+        <v>779</v>
+      </c>
+      <c r="I251" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="252" spans="3:9">
+      <c r="E252" t="s">
+        <v>787</v>
+      </c>
+      <c r="G252" t="s">
+        <v>782</v>
+      </c>
+      <c r="I252" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="253" spans="3:9">
+      <c r="E253" t="s">
+        <v>788</v>
+      </c>
+      <c r="G253" t="s">
+        <v>782</v>
+      </c>
+      <c r="I253" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="254" spans="3:9">
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>644</v>
+      </c>
+      <c r="G254" t="s">
+        <v>782</v>
+      </c>
+      <c r="I254" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="255" spans="3:9">
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>791</v>
+      </c>
+      <c r="G255" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="256" spans="3:9">
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="257" spans="4:11">
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="258" spans="4:11">
+      <c r="F258" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="259" spans="4:11">
+      <c r="F259" t="s">
+        <v>793</v>
+      </c>
+      <c r="K259" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="260" spans="4:11">
+      <c r="F260" t="s">
+        <v>795</v>
+      </c>
+      <c r="K260" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="261" spans="4:11">
+      <c r="F261" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="262" spans="4:11">
+      <c r="F262" t="s">
+        <v>797</v>
+      </c>
+      <c r="K262" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="263" spans="4:11">
+      <c r="F263" t="s">
+        <v>798</v>
+      </c>
+      <c r="K263" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="264" spans="4:11">
+      <c r="F264" t="s">
+        <v>799</v>
+      </c>
+      <c r="K264" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="265" spans="4:11">
+      <c r="F265" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="266" spans="4:11">
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="267" spans="4:11">
+      <c r="F267" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="268" spans="4:11">
+      <c r="D268">
+        <v>5</v>
+      </c>
+      <c r="E268" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="269" spans="4:11">
+      <c r="F269" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="270" spans="4:11">
+      <c r="D270">
+        <v>6</v>
+      </c>
+      <c r="E270" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="271" spans="4:11">
+      <c r="D271">
+        <v>7</v>
+      </c>
+      <c r="E271" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="272" spans="4:11">
+      <c r="D272">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5">
+      <c r="C273" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5">
+      <c r="E274" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5">
+      <c r="E275" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5">
+      <c r="E280" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="281" spans="3:5">
+      <c r="E281" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5">
+      <c r="E289" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5">
+      <c r="E290" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5">
+      <c r="E291" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5">
+      <c r="E294" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5">
+      <c r="E297" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5">
+      <c r="E300" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5">
+      <c r="E304" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="307" spans="3:20">
+      <c r="T307" s="60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="3:20">
+      <c r="E309" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="315" spans="3:20">
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="316" spans="3:20">
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="317" spans="3:20">
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="318" spans="3:20">
+      <c r="E318" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="319" spans="3:20">
+      <c r="E319" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="320" spans="3:20">
+      <c r="E320" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="321" spans="3:5">
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="322" spans="3:5">
+      <c r="E322" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="323" spans="3:5">
+      <c r="E323" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="324" spans="3:5">
+      <c r="E324" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="325" spans="3:5">
+      <c r="E325" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="326" spans="3:5">
+      <c r="C326">
+        <v>5</v>
+      </c>
+      <c r="D326" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="327" spans="3:5">
+      <c r="C327">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="328" spans="3:5">
+      <c r="C328">
+        <v>7</v>
+      </c>
+      <c r="D328" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="329" spans="3:5">
+      <c r="C329">
+        <v>8</v>
+      </c>
+      <c r="D329" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="330" spans="3:5">
+      <c r="C330">
+        <v>9</v>
+      </c>
+      <c r="D330" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="331" spans="3:5">
+      <c r="C331">
+        <v>10</v>
+      </c>
+      <c r="D331" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="332" spans="3:5">
+      <c r="C332" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="333" spans="3:5">
+      <c r="D333" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="334" spans="3:5">
+      <c r="E334" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="335" spans="3:5">
+      <c r="E335" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5">
+      <c r="E336" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="337" spans="3:8">
+      <c r="D337" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="338" spans="3:8">
+      <c r="E338" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="339" spans="3:8">
+      <c r="E339" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="340" spans="3:8">
+      <c r="E340" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="341" spans="3:8">
+      <c r="E341" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="342" spans="3:8">
+      <c r="C342" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="343" spans="3:8">
+      <c r="D343" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="344" spans="3:8">
+      <c r="D344" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="346" spans="3:8">
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>876</v>
+      </c>
+      <c r="F346" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="347" spans="3:8">
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="348" spans="3:8">
+      <c r="D348" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
+        <v>879</v>
+      </c>
+      <c r="H348" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="349" spans="3:8">
+      <c r="D349" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E349" t="s">
+        <v>880</v>
+      </c>
+      <c r="H349" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="350" spans="3:8">
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E350" t="s">
+        <v>881</v>
+      </c>
+      <c r="H350" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="351" spans="3:8">
+      <c r="D351" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>882</v>
+      </c>
+      <c r="H351" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="352" spans="3:8">
+      <c r="D352" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="353" spans="4:14">
+      <c r="D353" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="354" spans="4:14">
+      <c r="D354" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="355" spans="4:14">
+      <c r="D355" s="49" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="356" spans="4:14">
+      <c r="D356" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="358" spans="4:14">
+      <c r="E358" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="359" spans="4:14">
+      <c r="E359" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="360" spans="4:14">
+      <c r="L360" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="361" spans="4:14">
+      <c r="M361" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="362" spans="4:14">
+      <c r="N362" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="363" spans="4:14">
+      <c r="N363" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="365" spans="4:14">
+      <c r="M365" t="s">
+        <v>911</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>